--- a/src/test/java/com/inetBanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetBanking/testData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{FA5F6AAF-CA34-4AF5-9FDA-9BC5FD999AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +28,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>Egasavu</t>
+    <t>mngr628740</t>
   </si>
   <si>
-    <t>mngr397222</t>
+    <t>dApAjar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,8 +105,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,20 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,12 +441,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
